--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类列表KEY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,35 +480,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>列表子项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0xF2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表子项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01;</t>
+    <t>分类列表Key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储器路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储器名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描盘符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +594,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -641,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -685,6 +725,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1236,7 +1285,7 @@
         <v>88</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>92</v>
@@ -1275,10 +1324,10 @@
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>98</v>
@@ -1289,10 +1338,10 @@
       <c r="B20" s="12"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>98</v>
@@ -1363,8 +1412,8 @@
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
-        <v>93</v>
+      <c r="C26" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>94</v>
@@ -1379,57 +1428,53 @@
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="D29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1437,196 +1482,253 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>31</v>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C33" s="12"/>
+      <c r="D33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="4" t="s">
-        <v>119</v>
+      <c r="C37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C40" s="15"/>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="A5:A34"/>
+    <mergeCell ref="B5:B34"/>
     <mergeCell ref="C5:C20"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
   </si>
   <si>
     <t>自定义事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒体事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,6 +537,10 @@
   </si>
   <si>
     <t>扫描盘符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x32;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1057,7 +1053,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1076,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
@@ -1087,58 +1083,58 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1146,13 +1142,13 @@
       <c r="B6" s="12"/>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1160,13 +1156,13 @@
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1174,13 +1170,13 @@
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1188,13 +1184,13 @@
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1202,13 +1198,13 @@
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1216,13 +1212,13 @@
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1230,13 +1226,13 @@
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1244,13 +1240,13 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1258,10 +1254,10 @@
       <c r="B14" s="12"/>
       <c r="C14" s="15"/>
       <c r="D14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1270,10 +1266,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1282,13 +1278,13 @@
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1296,13 +1292,13 @@
       <c r="B17" s="12"/>
       <c r="C17" s="15"/>
       <c r="D17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1310,13 +1306,13 @@
       <c r="B18" s="12"/>
       <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1324,13 +1320,13 @@
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1338,26 +1334,26 @@
       <c r="B20" s="12"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -1366,10 +1362,10 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1378,10 +1374,10 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1390,10 +1386,10 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -1402,10 +1398,10 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -1413,16 +1409,16 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1430,13 +1426,13 @@
       <c r="B27" s="12"/>
       <c r="C27" s="18"/>
       <c r="D27" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1444,21 +1440,23 @@
       <c r="B28" s="12"/>
       <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="7"/>
@@ -1468,13 +1466,13 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1482,13 +1480,13 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1496,13 +1494,13 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1510,13 +1508,13 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1524,75 +1522,75 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="12"/>
       <c r="C37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="12"/>
       <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
@@ -1600,128 +1598,121 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A39" s="15"/>
       <c r="B39" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="12"/>
       <c r="C40" s="15"/>
       <c r="D40" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="12"/>
       <c r="C41" s="15"/>
       <c r="D41" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A43" s="15"/>
       <c r="B43" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="12"/>
       <c r="C44" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="12"/>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="A5:A34"/>
@@ -1729,6 +1720,7 @@
     <mergeCell ref="C5:C20"/>
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A35:A45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>0x32;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表父控件是不打开Key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1036,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1052,14 +1063,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1118,13 +1129,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1138,9 +1149,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
@@ -1152,9 +1163,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1166,9 +1177,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
         <v>83</v>
       </c>
@@ -1180,9 +1191,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1194,9 +1205,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
         <v>84</v>
       </c>
@@ -1208,9 +1219,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
@@ -1222,9 +1233,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
@@ -1236,9 +1247,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
@@ -1250,9 +1261,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7" t="s">
         <v>70</v>
       </c>
@@ -1262,9 +1273,9 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
         <v>72</v>
       </c>
@@ -1274,9 +1285,9 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
         <v>86</v>
       </c>
@@ -1288,9 +1299,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
         <v>94</v>
       </c>
@@ -1302,9 +1313,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
         <v>99</v>
       </c>
@@ -1316,9 +1327,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
         <v>102</v>
       </c>
@@ -1330,9 +1341,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
@@ -1344,9 +1355,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1358,9 +1369,9 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
@@ -1370,9 +1381,9 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1382,9 +1393,9 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
@@ -1394,9 +1405,9 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>61</v>
       </c>
@@ -1406,9 +1417,9 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1422,9 +1433,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
         <v>122</v>
       </c>
@@ -1436,9 +1447,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7" t="s">
         <v>124</v>
       </c>
@@ -1450,9 +1461,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1462,9 +1473,9 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="7" t="s">
         <v>117</v>
       </c>
@@ -1476,9 +1487,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
         <v>104</v>
       </c>
@@ -1490,9 +1501,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
         <v>106</v>
       </c>
@@ -1504,9 +1515,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
@@ -1518,9 +1529,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7" t="s">
         <v>119</v>
       </c>
@@ -1532,178 +1543,190 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5" t="s">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
+    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11" t="s">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12" t="s">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="4" t="s">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="4" t="s">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="4" t="s">
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="3" t="s">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1711,16 +1734,16 @@
   <mergeCells count="12">
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
     <mergeCell ref="A5:A34"/>
-    <mergeCell ref="B5:B34"/>
     <mergeCell ref="C5:C20"/>
-    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="B5:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,14 @@
   </si>
   <si>
     <t>列表父控件是不打开Key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x33;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐歌词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1351,7 @@
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
@@ -1354,29 +1362,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1385,10 +1395,10 @@
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1397,10 +1407,10 @@
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -1409,95 +1419,93 @@
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1505,10 +1513,10 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>80</v>
@@ -1519,10 +1527,10 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>80</v>
@@ -1533,123 +1541,123 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="7" t="s">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
-      <c r="B40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>6</v>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1657,13 +1665,13 @@
       <c r="B42" s="13"/>
       <c r="C42" s="16"/>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1671,79 +1679,93 @@
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
       <c r="D43" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
-      <c r="B44" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16"/>
       <c r="B46" s="13"/>
       <c r="C46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A5:A34"/>
-    <mergeCell ref="C5:C20"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A36:A46"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A5:A35"/>
+    <mergeCell ref="C5:C21"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="B5:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,30 @@
   </si>
   <si>
     <t>音乐歌词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -724,9 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,13 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1071,14 +1089,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1137,13 +1155,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1157,9 +1175,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
@@ -1171,9 +1189,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1185,9 +1203,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>83</v>
       </c>
@@ -1199,9 +1217,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1213,9 +1231,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
         <v>84</v>
       </c>
@@ -1227,9 +1245,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
@@ -1241,9 +1259,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
@@ -1255,9 +1273,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
@@ -1269,9 +1287,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="7" t="s">
         <v>70</v>
       </c>
@@ -1281,9 +1299,9 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
         <v>72</v>
       </c>
@@ -1293,9 +1311,9 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
         <v>86</v>
       </c>
@@ -1307,9 +1325,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7" t="s">
         <v>94</v>
       </c>
@@ -1321,9 +1339,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
         <v>99</v>
       </c>
@@ -1335,9 +1353,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
         <v>102</v>
       </c>
@@ -1349,9 +1367,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
@@ -1363,9 +1381,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
         <v>131</v>
       </c>
@@ -1377,9 +1395,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1391,9 +1409,9 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
@@ -1403,9 +1421,9 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
@@ -1415,9 +1433,9 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
@@ -1427,9 +1445,9 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
@@ -1439,9 +1457,9 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1455,9 +1473,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
         <v>122</v>
       </c>
@@ -1469,9 +1487,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>124</v>
       </c>
@@ -1483,272 +1501,306 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="7" t="s">
+      <c r="E32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="7" t="s">
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="7" t="s">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="5" t="s">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="11" t="s">
+    <row r="41" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="11" t="s">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="4" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="4" t="s">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="4" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13" t="s">
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="3" t="s">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="3" t="s">
+    <row r="49" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1756,16 +1808,16 @@
   <mergeCells count="12">
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A5:A35"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
     <mergeCell ref="C5:C21"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B5:B38"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="B5:B36"/>
+    <mergeCell ref="A5:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扩展选项(无扩展填充0x00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00;</t>
   </si>
   <si>
@@ -581,6 +577,26 @@
   </si>
   <si>
     <t>视频列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -761,6 +777,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1090,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1109,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
@@ -1120,58 +1145,58 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1179,13 +1204,13 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,13 +1218,13 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1207,13 +1232,13 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1221,13 +1246,13 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1235,13 +1260,13 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1249,13 +1274,13 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1263,13 +1288,13 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1277,13 +1302,13 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1291,10 +1316,10 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1303,10 +1328,10 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1315,13 +1340,13 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1329,13 +1354,13 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1343,13 +1368,13 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1357,13 +1382,13 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1371,13 +1396,13 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1385,26 +1410,26 @@
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1413,10 +1438,10 @@
       <c r="B23" s="15"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1425,10 +1450,10 @@
       <c r="B24" s="15"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -1437,10 +1462,10 @@
       <c r="B25" s="15"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -1449,143 +1474,143 @@
       <c r="B26" s="15"/>
       <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="17" t="s">
-        <v>121</v>
+      <c r="C27" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="C31" s="18"/>
       <c r="D31" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>96</v>
+        <v>140</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="D33" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="D34" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1593,13 +1618,13 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1607,137 +1632,137 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="7" t="s">
+      <c r="E39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>113</v>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="15"/>
+      <c r="C44" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1745,10 +1770,10 @@
       <c r="B46" s="12"/>
       <c r="C46" s="15"/>
       <c r="D46" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>40</v>
@@ -1756,68 +1781,97 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
-      <c r="B47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="4" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="3" t="s">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="16"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
     <mergeCell ref="C5:C21"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B5:B38"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="B5:B40"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A5:A38"/>
+    <mergeCell ref="A5:A40"/>
+    <mergeCell ref="C30:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -764,6 +764,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +782,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,12 +792,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1114,14 +1114,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1159,7 +1159,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -1180,13 +1180,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1200,9 +1200,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1214,9 +1214,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1228,9 +1228,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
@@ -1242,9 +1242,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1256,9 +1256,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
         <v>83</v>
       </c>
@@ -1270,9 +1270,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
@@ -1284,9 +1284,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
         <v>52</v>
       </c>
@@ -1298,9 +1298,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
@@ -1312,9 +1312,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7" t="s">
         <v>69</v>
       </c>
@@ -1324,9 +1324,9 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1336,9 +1336,9 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
         <v>85</v>
       </c>
@@ -1350,9 +1350,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
         <v>93</v>
       </c>
@@ -1364,9 +1364,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
         <v>98</v>
       </c>
@@ -1378,9 +1378,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
         <v>101</v>
       </c>
@@ -1392,9 +1392,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
         <v>127</v>
       </c>
@@ -1406,9 +1406,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7" t="s">
         <v>130</v>
       </c>
@@ -1420,9 +1420,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1434,9 +1434,9 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="7" t="s">
         <v>57</v>
       </c>
@@ -1446,9 +1446,9 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,9 +1458,9 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1470,9 +1470,9 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
@@ -1482,9 +1482,9 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1498,9 +1498,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="7" t="s">
         <v>121</v>
       </c>
@@ -1512,9 +1512,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7" t="s">
         <v>123</v>
       </c>
@@ -1526,9 +1526,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1542,9 +1542,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
@@ -1556,9 +1556,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="7" t="s">
         <v>139</v>
       </c>
@@ -1570,9 +1570,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1586,9 +1586,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1600,9 +1600,9 @@
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
         <v>116</v>
       </c>
@@ -1614,9 +1614,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
         <v>103</v>
       </c>
@@ -1628,9 +1628,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
         <v>105</v>
       </c>
@@ -1642,9 +1642,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
         <v>100</v>
       </c>
@@ -1656,9 +1656,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
         <v>118</v>
       </c>
@@ -1670,9 +1670,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="7" t="s">
         <v>128</v>
       </c>
@@ -1682,10 +1682,10 @@
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
         <v>9</v>
       </c>
@@ -1734,8 +1734,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
         <v>11</v>
       </c>
@@ -1748,11 +1748,11 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1766,9 +1766,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="4" t="s">
         <v>113</v>
       </c>
@@ -1780,9 +1780,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
         <v>114</v>
       </c>
@@ -1794,9 +1794,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="4" t="s">
         <v>125</v>
       </c>
@@ -1808,8 +1808,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1826,8 +1826,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
@@ -1842,8 +1842,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,14 @@
   </si>
   <si>
     <t>扩展选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频文件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -762,9 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1114,14 +1119,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1180,13 +1185,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1200,9 +1205,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1214,9 +1219,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1228,9 +1233,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
@@ -1242,9 +1247,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1256,9 +1261,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
         <v>83</v>
       </c>
@@ -1270,9 +1275,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
@@ -1284,9 +1289,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
         <v>52</v>
       </c>
@@ -1298,9 +1303,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
@@ -1312,9 +1317,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="7" t="s">
         <v>69</v>
       </c>
@@ -1324,9 +1329,9 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1336,9 +1341,9 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
         <v>85</v>
       </c>
@@ -1350,9 +1355,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7" t="s">
         <v>93</v>
       </c>
@@ -1364,9 +1369,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
         <v>98</v>
       </c>
@@ -1378,9 +1383,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
         <v>101</v>
       </c>
@@ -1392,9 +1397,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="7" t="s">
         <v>127</v>
       </c>
@@ -1406,9 +1411,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
         <v>130</v>
       </c>
@@ -1420,9 +1425,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1434,9 +1439,9 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
         <v>57</v>
       </c>
@@ -1446,9 +1451,9 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,9 +1463,9 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1470,9 +1475,9 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
@@ -1482,9 +1487,9 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1498,9 +1503,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
         <v>121</v>
       </c>
@@ -1512,9 +1517,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>123</v>
       </c>
@@ -1526,9 +1531,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1542,9 +1547,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
@@ -1556,9 +1561,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>139</v>
       </c>
@@ -1570,9 +1575,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1586,292 +1591,321 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="7" t="s">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7" t="s">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="7" t="s">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="5" t="s">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11" t="s">
+    <row r="45" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11" t="s">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13" t="s">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="4" t="s">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="4" t="s">
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="4" t="s">
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="13" t="s">
+    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="3" t="s">
+    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="3" t="s">
+    <row r="53" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="C5:C21"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="B5:B40"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B5:B42"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A5:A40"/>
+    <mergeCell ref="A5:A42"/>
     <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x21;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音乐播放地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +601,10 @@
   </si>
   <si>
     <t>视频文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
@@ -1184,7 +1184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1192,16 +1192,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1212,10 +1212,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1229,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1237,13 +1237,13 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,13 +1251,13 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1265,13 +1265,13 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1279,13 +1279,13 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1293,13 +1293,13 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1307,13 +1307,13 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1321,10 +1321,10 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1333,25 +1333,25 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1359,13 +1359,13 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1373,13 +1373,13 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1387,13 +1387,13 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1401,13 +1401,13 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1415,26 +1415,26 @@
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -1443,10 +1443,10 @@
       <c r="B23" s="15"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -1455,10 +1455,10 @@
       <c r="B24" s="15"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -1467,10 +1467,10 @@
       <c r="B25" s="15"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -1479,10 +1479,10 @@
       <c r="B26" s="15"/>
       <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -1490,16 +1490,16 @@
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1507,13 +1507,13 @@
       <c r="B28" s="15"/>
       <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1521,29 +1521,29 @@
       <c r="B29" s="15"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1551,13 +1551,13 @@
       <c r="B31" s="15"/>
       <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1565,29 +1565,29 @@
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,13 +1595,13 @@
       <c r="B34" s="15"/>
       <c r="C34" s="19"/>
       <c r="D34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1609,26 +1609,26 @@
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
       <c r="D35" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -1637,13 +1637,13 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1651,13 +1651,13 @@
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1665,13 +1665,13 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,13 +1679,13 @@
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1693,13 +1693,13 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1707,10 +1707,10 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F42" s="7"/>
     </row>
@@ -1763,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1789,10 +1789,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
       <c r="B48" s="12"/>
       <c r="C48" s="15"/>
       <c r="D48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>40</v>
@@ -1817,10 +1817,10 @@
       <c r="B49" s="12"/>
       <c r="C49" s="15"/>
       <c r="D49" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>41</v>
@@ -1831,10 +1831,10 @@
       <c r="B50" s="12"/>
       <c r="C50" s="15"/>
       <c r="D50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>39</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>

--- a/launcher/src/main/assets/doc/事件定义.xlsx
+++ b/launcher/src/main/assets/doc/事件定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>0x21;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急含菜单事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1861,7 +1873,7 @@
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -1874,38 +1886,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C5:C21"/>
     <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A43:A54"/>
     <mergeCell ref="C36:C42"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="A5:A42"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
